--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2851827.025539599</v>
+        <v>2927356.695204406</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>328.0287908880682</v>
+        <v>295.9452358720397</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>60.79301496104306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>155.9407888106546</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>83.73407615163482</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>103.7979706824274</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>117.1365314849862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>173.637167941063</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>123.2751712461471</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>28.13446210676921</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>101.0546783332129</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>117.0662618686607</v>
       </c>
       <c r="X13" t="n">
-        <v>147.1163355383943</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>118.4898845065121</v>
+        <v>112.8974161846638</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>152.2950099332015</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2059,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>137.4124440129374</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>43.0380168174636</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>243.3863741050862</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>82.9427765623123</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.23851788996306</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274051</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.357427682427902</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2967,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>22.85172767033485</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>78.77172316028837</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.4852479619983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051994</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>179.9239183140999</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758466998</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3661,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>10.45915033354384</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>54.21592811475345</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274157</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385003</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819414</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>231.2441738510241</v>
+        <v>238.560472377251</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>145.8490561337604</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.94664591678</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4336,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1626.94664591678</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="Y2" t="n">
-        <v>1626.94664591678</v>
+        <v>1205.465677900094</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>257.1154545468206</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.363038962244</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2381.363038962244</v>
+        <v>2537.273966515961</v>
       </c>
       <c r="W5" t="n">
-        <v>2028.59438369213</v>
+        <v>2537.273966515961</v>
       </c>
       <c r="X5" t="n">
-        <v>2028.59438369213</v>
+        <v>2163.808208254881</v>
       </c>
       <c r="Y5" t="n">
-        <v>1638.455051716319</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4649,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.9192350259435</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>217.9192350259435</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>217.9192350259435</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>217.9192350259435</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>217.9192350259435</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.9192350259435</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>589.4492616060802</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>589.4492616060802</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>589.4492616060802</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>589.4492616060802</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>178.4633568164726</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2437.52426527019</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2106.461377926619</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="X8" t="n">
-        <v>1366.188433646014</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y8" t="n">
-        <v>976.0491016702019</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4902,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>626.0535515466232</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>626.0535515466232</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>626.0535515466232</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V10" t="n">
-        <v>626.0535515466232</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>626.0535515466232</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>626.0535515466232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,22 +5029,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216475</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X13" t="n">
-        <v>1060.896741391251</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y13" t="n">
-        <v>1060.896741391251</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="14">
@@ -5279,13 +5281,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>3190.928350499668</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>3959.29649689213</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.9038434870658</v>
+        <v>638.8778922268339</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305959</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870658</v>
+        <v>820.5263570570736</v>
       </c>
     </row>
     <row r="17">
@@ -5510,34 +5512,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>415.8104215925219</v>
+        <v>696.2714843595163</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>696.2714843595163</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>696.2714843595163</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>548.3583907771232</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>401.4684432792128</v>
       </c>
       <c r="G19" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5707,16 +5709,16 @@
         <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273991</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W19" t="n">
-        <v>554.6108700904385</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X19" t="n">
-        <v>415.8104215925219</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="Y19" t="n">
-        <v>415.8104215925219</v>
+        <v>877.919949189756</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>3799.634725086987</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>3799.634725086987</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>3649.518085674651</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>3649.518085674651</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>3502.628138176741</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>3502.628138176741</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.020508932908</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V22" t="n">
-        <v>3893.336020727022</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W22" t="n">
-        <v>3603.918850690061</v>
+        <v>4027.624275985004</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>3799.634725086987</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>3799.634725086987</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602865</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>3907.324136615209</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>4237.186764279241</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>4516.726829497939</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>1141.996344791358</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>1141.996344791358</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6205,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6224,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,13 +6238,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,16 +6305,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
         <v>2051.878056918008</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>496.0629430245497</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>496.0629430245497</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>496.0629430245497</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>496.0629430245497</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>349.1729955266393</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>180.9976738464599</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1409.786454507435</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1409.786454507435</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1186.00103929694</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1186.00103929694</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>1186.00103929694</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W28" t="n">
-        <v>896.5838692599799</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X28" t="n">
-        <v>668.5943183619626</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184324</v>
+        <v>677.7114078547894</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095317</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.474758001781</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281742</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945775</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164473</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698579</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>823.5191931240375</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C31" t="n">
-        <v>823.5191931240375</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D31" t="n">
-        <v>822.148054050878</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V31" t="n">
-        <v>1044.311772267568</v>
+        <v>1140.973198706875</v>
       </c>
       <c r="W31" t="n">
-        <v>1044.311772267568</v>
+        <v>1140.973198706875</v>
       </c>
       <c r="X31" t="n">
-        <v>1044.311772267568</v>
+        <v>912.983647808858</v>
       </c>
       <c r="Y31" t="n">
-        <v>823.5191931240375</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="32">
@@ -6677,67 +6679,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095317</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001781</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281742</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945775</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164473</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698579</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705745</v>
+        <v>604.14521039576</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705745</v>
+        <v>435.2090274678532</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705745</v>
+        <v>435.2090274678532</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705745</v>
+        <v>435.2090274678532</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705745</v>
+        <v>288.3190799699428</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170374</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705745</v>
+        <v>785.7936752259998</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6916,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6950,16 +6952,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095317</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001781</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281742</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945775</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164473</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698579</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916677</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916677</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1317.174938927498</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1317.174938927498</v>
       </c>
       <c r="U37" t="n">
-        <v>4452.039182201072</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="V37" t="n">
-        <v>4197.354693995185</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="W37" t="n">
-        <v>3907.937523958224</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="X37" t="n">
-        <v>3679.947973060207</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916677</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7169,55 +7171,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>2722.801152901741</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>3336.69822265863</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>3644.018355938592</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>3973.880983602625</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>444.8933943850831</v>
+        <v>450.0103882072909</v>
       </c>
       <c r="C40" t="n">
-        <v>275.9572114571762</v>
+        <v>450.0103882072909</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>299.8937487949552</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>151.9806552125621</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>151.9806552125621</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>151.9806552125621</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>670.8029673508211</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.8933943850831</v>
+        <v>450.0103882072909</v>
       </c>
     </row>
     <row r="41">
@@ -7391,52 +7393,52 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382247</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7476,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1236.836466556557</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N42" t="n">
-        <v>2041.248044820708</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U43" t="n">
-        <v>930.4757783223407</v>
+        <v>4308.889285373235</v>
       </c>
       <c r="V43" t="n">
-        <v>675.7912901164539</v>
+        <v>4308.889285373235</v>
       </c>
       <c r="W43" t="n">
-        <v>675.7912901164539</v>
+        <v>4019.472115336274</v>
       </c>
       <c r="X43" t="n">
-        <v>447.8017392184366</v>
+        <v>3791.482564438257</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184366</v>
+        <v>3570.689985294727</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,28 +7639,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7691,7 +7693,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353329</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353329</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353329</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353329</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353329</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954967</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>615.749957978863</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353329</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>360.5026862907246</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>297.2466435761026</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9170,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9243,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>43.65987261462453</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>277.671796620807</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>165.9802687929761</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776736</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776736</v>
+        <v>38.86002301949887</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776736</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928317</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>73.64859338270546</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>398.9629823660891</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231151</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>169.4567364679303</v>
       </c>
       <c r="X13" t="n">
-        <v>78.59331985064287</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>48.75693659211572</v>
+        <v>54.34940491396404</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>14.19855853017609</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>88.29721137609974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24132,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>105.8758115500725</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>8.751269218741811</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>65.97105180522382</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.72583451382974</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>147.2580453357845</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>229.2859156534931</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>87.72184530308921</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>21.09940539009654</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>17.99689166950338</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518776</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>138.1563226846685</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>94.69790025278269</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>54.99317854755321</v>
+        <v>47.67688002132635</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>20.64451232961719</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.042593448</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934483</v>
@@ -26341,19 +26343,19 @@
         <v>606095.0425934487</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="N2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007524</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007523</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007441</v>
-      </c>
       <c r="L4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007387</v>
+        <v>7916.731656007446</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007524</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26503,10 +26505,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184436.6343490551</v>
+        <v>-184436.634349055</v>
       </c>
       <c r="C6" t="n">
-        <v>405531.2448654892</v>
+        <v>405531.2448654894</v>
       </c>
       <c r="D6" t="n">
-        <v>405531.2448654891</v>
+        <v>405531.2448654894</v>
       </c>
       <c r="E6" t="n">
-        <v>-18969.05148817156</v>
+        <v>-18969.05148817159</v>
       </c>
       <c r="F6" t="n">
-        <v>506190.984988724</v>
+        <v>506190.9849887242</v>
       </c>
       <c r="G6" t="n">
-        <v>506190.9849887245</v>
+        <v>506190.9849887243</v>
       </c>
       <c r="H6" t="n">
         <v>506190.9849887245</v>
       </c>
       <c r="I6" t="n">
-        <v>506190.9849887245</v>
+        <v>506190.9849887243</v>
       </c>
       <c r="J6" t="n">
         <v>329767.7657961313</v>
@@ -26549,19 +26551,19 @@
         <v>506190.9849887246</v>
       </c>
       <c r="L6" t="n">
+        <v>506190.9849887246</v>
+      </c>
+      <c r="M6" t="n">
+        <v>371389.9697548874</v>
+      </c>
+      <c r="N6" t="n">
+        <v>506190.9849887245</v>
+      </c>
+      <c r="O6" t="n">
         <v>506190.9849887242</v>
       </c>
-      <c r="M6" t="n">
-        <v>371389.9697548872</v>
-      </c>
-      <c r="N6" t="n">
-        <v>506190.9849887246</v>
-      </c>
-      <c r="O6" t="n">
-        <v>506190.9849887246</v>
-      </c>
       <c r="P6" t="n">
-        <v>506190.9849887245</v>
+        <v>506190.9849887243</v>
       </c>
     </row>
   </sheetData>
@@ -26735,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>41.70230979040082</v>
+        <v>73.78586480642929</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>119.0389652208942</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>130.3410854313231</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>167.4900913566545</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>223.9542877877075</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>17.82909030735202</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>38.50837100895589</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>290.5089987746479</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>223.0897054015201</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>111.090860616806</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30478,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>609.7603912467489</v>
       </c>
       <c r="M12" t="n">
-        <v>487.1420318003109</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>546.5043485321269</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557327</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>354.1326152325991</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>610.8663700188198</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>259.5907485445772</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>415.2379737490004</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,16 +36925,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091983</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091983</v>
+        <v>245.9534379510236</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843356</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091983</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>224.2240319706447</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37637,10 +37639,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>709.3873594165555</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38111,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081892</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
